--- a/public/admin/letters/increment_letter.xlsx
+++ b/public/admin/letters/increment_letter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Client_Name</t>
   </si>
@@ -219,6 +219,9 @@
   <si>
     <t>Zomato Hyperpure Private Limited</t>
   </si>
+  <si>
+    <t>Unique Punch Systems Pvt Ltd</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +233,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +252,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -724,137 +733,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,10 +872,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,13 +1156,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1411,7 +1416,7 @@
   <sheetPr/>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
@@ -1421,80 +1426,80 @@
     <col min="25" max="25" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1517,10 +1522,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1664,6 +1669,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="18" ht="15" spans="2:3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
